--- a/Sura/DataSource - ValidaFormularios - Flota Emitida.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Flota Emitida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4494E3-CE6B-4BEE-8428-6C545824BB5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7818AB-C401-43EA-9B32-01D3A2F5E20E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>NroPoliza</t>
   </si>
   <si>
-    <t>04104013802</t>
+    <t>04104016712</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/DataSource - ValidaFormularios - Flota Emitida.xlsx
+++ b/Sura/DataSource - ValidaFormularios - Flota Emitida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7818AB-C401-43EA-9B32-01D3A2F5E20E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E12C30-0BD0-4680-B5FC-7690B27F4CD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>NroPoliza</t>
   </si>
   <si>
-    <t>04104016712</t>
+    <t>04104018070</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
